--- a/DB.xlsx
+++ b/DB.xlsx
@@ -1,43 +1,108 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="96" yWindow="60" windowWidth="10500" windowHeight="5328" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="132" yWindow="624" windowWidth="22716" windowHeight="8148"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="145621" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+  <si>
+    <t>NOM</t>
+  </si>
+  <si>
+    <t>PRENOM</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>HEIGHT</t>
+  </si>
+  <si>
+    <t>WEIGHT</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>EMAIL_NOTIFICATIONS</t>
+  </si>
+  <si>
+    <t>uhuihithhg</t>
+  </si>
+  <si>
+    <t>efjwjfw</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>yusuf</t>
+  </si>
+  <si>
+    <t>9af15b336e6a9619928537df30b2e6a2376569fcf9d7e773eccede65606529a0</t>
+  </si>
+  <si>
+    <t>fvf</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>erf</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>dsjfnwdsd</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -56,81 +121,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -209,7 +212,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -244,7 +246,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -420,151 +421,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="20.5546875" customWidth="1" min="1" max="1"/>
-    <col width="22.109375" customWidth="1" min="2" max="2"/>
-    <col width="20.88671875" customWidth="1" min="3" max="3"/>
-    <col width="28.21875" customWidth="1" min="4" max="4"/>
-    <col width="11.6640625" customWidth="1" min="5" max="5"/>
-    <col width="21.33203125" customWidth="1" min="6" max="6"/>
-    <col width="68.5546875" customWidth="1" min="7" max="7"/>
-    <col width="25.44140625" customWidth="1" min="8" max="8"/>
+    <col min="1" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" customWidth="1"/>
+    <col min="8" max="8" width="79.6640625" customWidth="1"/>
+    <col min="9" max="9" width="53.88671875" customWidth="1"/>
+    <col min="10" max="10" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>NOM</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>PRENOM</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>GENDER</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>AGE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>USERNAME</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PASSWORD</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>EMAIL</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>EMAIL_NOTIFICATIONS</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>youssef</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>lamadi</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>yusuf</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>yousseflamadi3@gmail.com</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>